--- a/data_excel/vianney/vianney.xlsx
+++ b/data_excel/vianney/vianney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>VENTAS</t>
+          <t>PRECIO</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRECIO</t>
+          <t>P.COMP</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>P.COMP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>P.COSTO</t>
         </is>
@@ -483,17 +478,14 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
         <v>520</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -510,17 +502,14 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
         <v>135</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -537,17 +526,14 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
         <v>164</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,17 +550,14 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
         <v>250</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -591,17 +574,14 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
         <v>1245</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -618,17 +598,14 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
         <v>1245</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,17 +622,14 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
         <v>375</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -672,17 +646,14 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
         <v>375</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -699,17 +670,14 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
         <v>155</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,17 +694,14 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
         <v>155</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -753,17 +718,14 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
         <v>250</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -780,17 +742,14 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
         <v>220</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -807,17 +766,14 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
         <v>665</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -834,17 +790,14 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
         <v>245</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -861,17 +814,14 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
         <v>465</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,17 +838,14 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
         <v>565</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -915,17 +862,14 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
         <v>495</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -942,17 +886,14 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
         <v>565</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -969,17 +910,14 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
         <v>495</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -994,15 +932,12 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="E21" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1019,17 +954,14 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
         <v>499</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1046,17 +978,14 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
         <v>499</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1073,17 +1002,14 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
         <v>635</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1098,15 +1024,12 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="E25" t="n">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1123,17 +1046,14 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
         <v>499</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1150,17 +1070,14 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
         <v>479</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1177,17 +1094,14 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
         <v>479</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1204,17 +1118,14 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
         <v>535</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1231,17 +1142,14 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
         <v>420</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1258,17 +1166,14 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
         <v>445</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1285,17 +1190,14 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
         <v>479</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1312,17 +1214,14 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
         <v>435</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1339,17 +1238,14 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
         <v>298</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1366,17 +1262,14 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
         <v>489</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1393,17 +1286,14 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
         <v>479</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1418,15 +1308,12 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="E37" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1443,17 +1330,14 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
         <v>430</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1470,17 +1354,14 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
         <v>465</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1497,17 +1378,14 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
         <v>495</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1524,17 +1402,14 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
         <v>265</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1551,17 +1426,14 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
         <v>665</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,17 +1450,14 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
         <v>220</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1605,17 +1474,14 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
         <v>499</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1632,17 +1498,14 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
         <v>385</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,17 +1522,14 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
         <v>650</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1686,17 +1546,14 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
         <v>610</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,15 +1568,12 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="E48" t="n">
-        <v>898</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,15 +1588,12 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E49" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1757,15 +1608,12 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="E50" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1780,15 +1628,12 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="E51" t="n">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1805,17 +1650,14 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
         <v>380</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1832,17 +1674,14 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
         <v>380</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1859,17 +1698,14 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
         <v>380</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1886,17 +1722,14 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
         <v>380</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1911,15 +1744,12 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="E56" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1936,17 +1766,14 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
         <v>468</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1961,15 +1788,12 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="E58" t="n">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1984,15 +1808,12 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="E59" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2009,17 +1830,14 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
         <v>759</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2036,17 +1854,14 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
         <v>759</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2063,17 +1878,14 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
         <v>495</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2090,17 +1902,14 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
         <v>685</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2115,15 +1924,12 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="E64" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2140,17 +1946,14 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
         <v>635</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2167,17 +1970,14 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
         <v>530</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2194,17 +1994,14 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
         <v>605</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2221,17 +2018,14 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
         <v>605</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2248,17 +2042,14 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
         <v>605</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2275,17 +2066,14 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
         <v>585</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2302,17 +2090,14 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
         <v>530</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2329,17 +2114,14 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
         <v>585</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2356,17 +2138,14 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
         <v>499</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2383,17 +2162,14 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
         <v>499</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,17 +2186,14 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
         <v>499</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2435,15 +2208,12 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="E76" t="n">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2460,17 +2230,14 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
         <v>545</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2487,17 +2254,14 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
         <v>685</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,17 +2278,14 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
         <v>545</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2541,17 +2302,14 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
         <v>635</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,15 +2324,12 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="E81" t="n">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2591,17 +2346,14 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
         <v>530</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,17 +2370,14 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
         <v>441</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2645,17 +2394,14 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
         <v>530</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2672,17 +2418,14 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
         <v>520</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2697,15 +2440,12 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="E86" t="n">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,17 +2462,14 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
         <v>415</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2749,17 +2486,14 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
         <v>415</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2776,17 +2510,14 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
         <v>415</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2801,15 +2532,12 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="E90" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,17 +2554,14 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
         <v>215</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2853,17 +2578,14 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
         <v>202</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,15 +2600,12 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="E93" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2901,15 +2620,12 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="E94" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2926,17 +2642,14 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
         <v>468</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2953,17 +2666,14 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
         <v>450</v>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2980,17 +2690,14 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
         <v>1360</v>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3007,17 +2714,14 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
         <v>389</v>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,17 +2738,14 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
         <v>378</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3061,17 +2762,14 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
         <v>360</v>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3088,17 +2786,14 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
         <v>355</v>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,17 +2810,14 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
         <v>359</v>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3142,17 +2834,14 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
         <v>390</v>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3169,17 +2858,14 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
         <v>355</v>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3196,17 +2882,14 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
         <v>415</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3223,17 +2906,14 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
         <v>589</v>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3250,17 +2930,14 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
         <v>465</v>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3277,17 +2954,14 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
         <v>395</v>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3304,17 +2978,14 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
         <v>255</v>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
         <v>0</v>
       </c>
     </row>
